--- a/PS-VRP/INPUT_TEST/MACCHINE12.xlsx
+++ b/PS-VRP/INPUT_TEST/MACCHINE12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/81037a9b1801ac22/Desktop/PS-VRP/Dati_input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wikipedis\Documents\GitHub\progettoIS\PS-VRP\INPUT_TEST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{544283B6-77E4-4B7C-AAD8-78E34B9D201A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49856C1D-F6D1-40BA-A17B-05896CBBEA5F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613C10A2-2763-47B6-8D8D-963D3ACEDEBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3918BD03-3376-4F28-90D9-48C326B99BD1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3918BD03-3376-4F28-90D9-48C326B99BD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -286,7 +286,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -301,12 +301,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -628,40 +624,40 @@
       <selection activeCell="T2" sqref="T2:T18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="24.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="28.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="40" width="8.88671875" style="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="40" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -747,7 +743,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -797,7 +793,7 @@
         <v>500</v>
       </c>
       <c r="T2" s="2">
-        <v>45546</v>
+        <v>45756</v>
       </c>
       <c r="U2" s="3">
         <v>0.60624999999999996</v>
@@ -824,7 +820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
@@ -877,7 +873,7 @@
         <v>50</v>
       </c>
       <c r="T3" s="2">
-        <v>45546</v>
+        <v>45756</v>
       </c>
       <c r="U3" s="3">
         <v>0.41666666666666669</v>
@@ -904,7 +900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>35</v>
       </c>
@@ -957,7 +953,7 @@
         <v>50</v>
       </c>
       <c r="T4" s="2">
-        <v>45546</v>
+        <v>45756</v>
       </c>
       <c r="U4" s="3">
         <v>0.40555555555555556</v>
@@ -984,7 +980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -1037,7 +1033,7 @@
         <v>50</v>
       </c>
       <c r="T5" s="2">
-        <v>45546</v>
+        <v>45756</v>
       </c>
       <c r="U5" s="3">
         <v>0.59652777777777777</v>
@@ -1064,7 +1060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
@@ -1114,7 +1110,7 @@
         <v>500</v>
       </c>
       <c r="T6" s="2">
-        <v>45546</v>
+        <v>45756</v>
       </c>
       <c r="U6" s="3">
         <v>0.44513888888888886</v>
@@ -1141,7 +1137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>41</v>
       </c>
@@ -1191,7 +1187,7 @@
         <v>420</v>
       </c>
       <c r="T7" s="2">
-        <v>45546</v>
+        <v>45756</v>
       </c>
       <c r="U7" s="3">
         <v>0.30416666666666664</v>
@@ -1218,7 +1214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>43</v>
       </c>
@@ -1271,7 +1267,7 @@
         <v>50</v>
       </c>
       <c r="T8" s="2">
-        <v>45546</v>
+        <v>45756</v>
       </c>
       <c r="U8" s="3">
         <v>0.59444444444444444</v>
@@ -1298,7 +1294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>45</v>
       </c>
@@ -1348,7 +1344,7 @@
         <v>600</v>
       </c>
       <c r="T9" s="2">
-        <v>45546</v>
+        <v>45756</v>
       </c>
       <c r="U9" s="3">
         <v>0.30694444444444446</v>
@@ -1375,7 +1371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>47</v>
       </c>
@@ -1428,7 +1424,7 @@
         <v>18</v>
       </c>
       <c r="T10" s="2">
-        <v>45546</v>
+        <v>45756</v>
       </c>
       <c r="U10" s="3">
         <v>0.55902777777777779</v>
@@ -1455,7 +1451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>49</v>
       </c>
@@ -1508,7 +1504,7 @@
         <v>40</v>
       </c>
       <c r="T11" s="2">
-        <v>45546</v>
+        <v>45756</v>
       </c>
       <c r="U11" s="3">
         <v>0.33680555555555558</v>
@@ -1535,7 +1531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>51</v>
       </c>
@@ -1585,7 +1581,7 @@
         <v>600</v>
       </c>
       <c r="T12" s="2">
-        <v>45546</v>
+        <v>45756</v>
       </c>
       <c r="U12" s="3">
         <v>0.43055555555555558</v>
@@ -1612,7 +1608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>53</v>
       </c>
@@ -1665,7 +1661,7 @@
         <v>50</v>
       </c>
       <c r="T13" s="2">
-        <v>45546</v>
+        <v>45756</v>
       </c>
       <c r="U13" s="3">
         <v>0.47847222222222224</v>
@@ -1692,7 +1688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>55</v>
       </c>
@@ -1736,13 +1732,13 @@
         <v>640</v>
       </c>
       <c r="T14" s="2">
-        <v>45546</v>
+        <v>45756</v>
       </c>
       <c r="U14" s="3">
         <v>0.44305555555555554</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>58</v>
       </c>
@@ -1786,13 +1782,13 @@
         <v>1000</v>
       </c>
       <c r="T15" s="2">
-        <v>45546</v>
+        <v>45756</v>
       </c>
       <c r="U15" s="3">
         <v>0.33194444444444443</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>60</v>
       </c>
@@ -1836,13 +1832,13 @@
         <v>1150</v>
       </c>
       <c r="T16" s="2">
-        <v>45546</v>
+        <v>45756</v>
       </c>
       <c r="U16" s="3">
         <v>0.39027777777777778</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>62</v>
       </c>
@@ -1886,13 +1882,13 @@
         <v>1500</v>
       </c>
       <c r="T17" s="2">
-        <v>45546</v>
+        <v>45756</v>
       </c>
       <c r="U17" s="3">
         <v>0.40833333333333333</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>64</v>
       </c>
@@ -1936,7 +1932,7 @@
         <v>1000</v>
       </c>
       <c r="T18" s="2">
-        <v>45546</v>
+        <v>45756</v>
       </c>
       <c r="U18" s="3">
         <v>0.50486111111111109</v>

--- a/PS-VRP/INPUT_TEST/MACCHINE12.xlsx
+++ b/PS-VRP/INPUT_TEST/MACCHINE12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wikipedis\Documents\GitHub\progettoIS\PS-VRP\INPUT_TEST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613C10A2-2763-47B6-8D8D-963D3ACEDEBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89077EAF-0CEF-46F1-B138-A739DC711FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3918BD03-3376-4F28-90D9-48C326B99BD1}"/>
   </bookViews>
@@ -620,7 +620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5669A242-F364-4C2E-83C3-5FEC8505675D}">
   <dimension ref="A1:AN18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
       <selection activeCell="T2" sqref="T2:T18"/>
     </sheetView>
   </sheetViews>
@@ -644,8 +644,8 @@
     <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.85546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="25.42578125" style="2" customWidth="1"/>
     <col min="21" max="21" width="18.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -793,7 +793,7 @@
         <v>500</v>
       </c>
       <c r="T2" s="2">
-        <v>45756</v>
+        <v>45757</v>
       </c>
       <c r="U2" s="3">
         <v>0.60624999999999996</v>
@@ -873,7 +873,7 @@
         <v>50</v>
       </c>
       <c r="T3" s="2">
-        <v>45756</v>
+        <v>45757</v>
       </c>
       <c r="U3" s="3">
         <v>0.41666666666666669</v>
@@ -953,7 +953,7 @@
         <v>50</v>
       </c>
       <c r="T4" s="2">
-        <v>45756</v>
+        <v>45757</v>
       </c>
       <c r="U4" s="3">
         <v>0.40555555555555556</v>
@@ -1033,7 +1033,7 @@
         <v>50</v>
       </c>
       <c r="T5" s="2">
-        <v>45756</v>
+        <v>45757</v>
       </c>
       <c r="U5" s="3">
         <v>0.59652777777777777</v>
@@ -1110,7 +1110,7 @@
         <v>500</v>
       </c>
       <c r="T6" s="2">
-        <v>45756</v>
+        <v>45757</v>
       </c>
       <c r="U6" s="3">
         <v>0.44513888888888886</v>
@@ -1187,7 +1187,7 @@
         <v>420</v>
       </c>
       <c r="T7" s="2">
-        <v>45756</v>
+        <v>45757</v>
       </c>
       <c r="U7" s="3">
         <v>0.30416666666666664</v>
@@ -1267,7 +1267,7 @@
         <v>50</v>
       </c>
       <c r="T8" s="2">
-        <v>45756</v>
+        <v>45757</v>
       </c>
       <c r="U8" s="3">
         <v>0.59444444444444444</v>
@@ -1344,7 +1344,7 @@
         <v>600</v>
       </c>
       <c r="T9" s="2">
-        <v>45756</v>
+        <v>45757</v>
       </c>
       <c r="U9" s="3">
         <v>0.30694444444444446</v>
@@ -1424,7 +1424,7 @@
         <v>18</v>
       </c>
       <c r="T10" s="2">
-        <v>45756</v>
+        <v>45757</v>
       </c>
       <c r="U10" s="3">
         <v>0.55902777777777779</v>
@@ -1504,7 +1504,7 @@
         <v>40</v>
       </c>
       <c r="T11" s="2">
-        <v>45756</v>
+        <v>45757</v>
       </c>
       <c r="U11" s="3">
         <v>0.33680555555555558</v>
@@ -1581,7 +1581,7 @@
         <v>600</v>
       </c>
       <c r="T12" s="2">
-        <v>45756</v>
+        <v>45757</v>
       </c>
       <c r="U12" s="3">
         <v>0.43055555555555558</v>
@@ -1661,7 +1661,7 @@
         <v>50</v>
       </c>
       <c r="T13" s="2">
-        <v>45756</v>
+        <v>45757</v>
       </c>
       <c r="U13" s="3">
         <v>0.47847222222222224</v>
@@ -1732,7 +1732,7 @@
         <v>640</v>
       </c>
       <c r="T14" s="2">
-        <v>45756</v>
+        <v>45757</v>
       </c>
       <c r="U14" s="3">
         <v>0.44305555555555554</v>
@@ -1782,7 +1782,7 @@
         <v>1000</v>
       </c>
       <c r="T15" s="2">
-        <v>45756</v>
+        <v>45757</v>
       </c>
       <c r="U15" s="3">
         <v>0.33194444444444443</v>
@@ -1832,7 +1832,7 @@
         <v>1150</v>
       </c>
       <c r="T16" s="2">
-        <v>45756</v>
+        <v>45757</v>
       </c>
       <c r="U16" s="3">
         <v>0.39027777777777778</v>
@@ -1882,7 +1882,7 @@
         <v>1500</v>
       </c>
       <c r="T17" s="2">
-        <v>45756</v>
+        <v>45757</v>
       </c>
       <c r="U17" s="3">
         <v>0.40833333333333333</v>
@@ -1932,7 +1932,7 @@
         <v>1000</v>
       </c>
       <c r="T18" s="2">
-        <v>45756</v>
+        <v>45757</v>
       </c>
       <c r="U18" s="3">
         <v>0.50486111111111109</v>

--- a/PS-VRP/INPUT_TEST/MACCHINE12.xlsx
+++ b/PS-VRP/INPUT_TEST/MACCHINE12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wikipedis\Documents\GitHub\progettoIS\PS-VRP\INPUT_TEST\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frenc\Documents\GitHub\progettoIS\PS-VRP\INPUT_TEST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89077EAF-0CEF-46F1-B138-A739DC711FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4640E63D-BBC8-420C-ABA3-FEC74D78930C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3918BD03-3376-4F28-90D9-48C326B99BD1}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11295" xr2:uid="{3918BD03-3376-4F28-90D9-48C326B99BD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -286,7 +286,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -302,7 +302,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -620,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5669A242-F364-4C2E-83C3-5FEC8505675D}">
   <dimension ref="A1:AN18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2:T18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1693,7 +1693,7 @@
         <v>55</v>
       </c>
       <c r="B14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="1">
         <v>104</v>
@@ -1743,7 +1743,7 @@
         <v>58</v>
       </c>
       <c r="B15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="1">
         <v>169</v>
@@ -1793,7 +1793,7 @@
         <v>60</v>
       </c>
       <c r="B16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="1">
         <v>195</v>
@@ -1843,7 +1843,7 @@
         <v>62</v>
       </c>
       <c r="B17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="1">
         <v>188</v>
@@ -1893,7 +1893,7 @@
         <v>64</v>
       </c>
       <c r="B18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" s="1">
         <v>146</v>

--- a/PS-VRP/INPUT_TEST/MACCHINE12.xlsx
+++ b/PS-VRP/INPUT_TEST/MACCHINE12.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frenc\Documents\GitHub\progettoIS\PS-VRP\INPUT_TEST\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wikipedis\Documents\GitHub\progettoIS\PS-VRP\INPUT_TEST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4640E63D-BBC8-420C-ABA3-FEC74D78930C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B493FC-845C-4D07-A6CF-69D944F6EC07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11295" xr2:uid="{3918BD03-3376-4F28-90D9-48C326B99BD1}"/>
+    <workbookView xWindow="5115" yWindow="2025" windowWidth="15375" windowHeight="7875" xr2:uid="{3918BD03-3376-4F28-90D9-48C326B99BD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -286,7 +286,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -302,7 +302,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -620,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5669A242-F364-4C2E-83C3-5FEC8505675D}">
   <dimension ref="A1:AN18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
